--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2746874.287977592</v>
+        <v>-2749473.082948253</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.96577973845509</v>
+        <v>365.6488213591399</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562904</v>
+        <v>43.86785806562895</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458108</v>
+        <v>110.5418770458107</v>
       </c>
       <c r="T2" t="n">
         <v>204.1780969433633</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>92.85596119227733</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>89.90394266080568</v>
+        <v>37.69069145970081</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285532</v>
+        <v>19.91189527285529</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516765</v>
+        <v>2.116953416516708</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456432</v>
+        <v>90.13067551456429</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2335559203904</v>
+        <v>190.2335559203903</v>
       </c>
       <c r="T4" t="n">
         <v>219.6628404482119</v>
@@ -874,7 +874,7 @@
         <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
-        <v>33.69146232827643</v>
+        <v>33.69146232827728</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.374951424289</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.44868378079367</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>54.51165059784275</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.238372828422</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>204.6785882200678</v>
+        <v>160.5958651236767</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>35.76004954248988</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>160.7365361851534</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428277</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520954</v>
       </c>
     </row>
     <row r="14">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428202</v>
+        <v>20.88994825141567</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428195</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.800047274035</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596497</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833821</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833798</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892437</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652626</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541836</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652584</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972051</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,13 +4189,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.6787171265769</v>
+        <v>847.6787171265792</v>
       </c>
       <c r="C2" t="n">
-        <v>478.7162001861652</v>
+        <v>478.7162001861675</v>
       </c>
       <c r="D2" t="n">
-        <v>120.4505015794148</v>
+        <v>478.7162001861675</v>
       </c>
       <c r="E2" t="n">
-        <v>109.3739563890565</v>
+        <v>109.3739563890564</v>
       </c>
       <c r="F2" t="n">
-        <v>109.3739563890565</v>
+        <v>109.3739563890564</v>
       </c>
       <c r="G2" t="n">
-        <v>109.3739563890565</v>
+        <v>109.3739563890564</v>
       </c>
       <c r="H2" t="n">
-        <v>109.3739563890565</v>
+        <v>109.3739563890564</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="J2" t="n">
-        <v>248.9490509731313</v>
+        <v>248.9490509731318</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032915</v>
+        <v>575.2851091032926</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679883</v>
+        <v>1017.035607679884</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999098</v>
+        <v>1540.237590999099</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778083</v>
+        <v>2076.519337778085</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854077</v>
+        <v>2569.579722854079</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302311</v>
+        <v>2955.894353302313</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704724</v>
+        <v>3197.827805704726</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299841</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637406</v>
+        <v>3141.490970637408</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674413</v>
+        <v>2935.250468674415</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.715190041275</v>
+        <v>2681.715190041277</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.652302697704</v>
+        <v>2350.652302697707</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.88364742759</v>
+        <v>1997.883647427592</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.41788916651</v>
+        <v>1624.417889166513</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.278557190699</v>
+        <v>1234.278557190701</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>888.8020873615114</v>
+        <v>888.8020873615133</v>
       </c>
       <c r="C3" t="n">
-        <v>714.3490580803845</v>
+        <v>714.3490580803863</v>
       </c>
       <c r="D3" t="n">
-        <v>565.4146484191331</v>
+        <v>565.4146484191351</v>
       </c>
       <c r="E3" t="n">
-        <v>406.1771934136775</v>
+        <v>406.1771934136796</v>
       </c>
       <c r="F3" t="n">
-        <v>312.383293219458</v>
+        <v>259.6426354405646</v>
       </c>
       <c r="G3" t="n">
-        <v>175.9880774678766</v>
+        <v>123.2474196889837</v>
       </c>
       <c r="H3" t="n">
-        <v>85.17601417413351</v>
+        <v>85.17601417413353</v>
       </c>
       <c r="I3" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="J3" t="n">
-        <v>155.7664206654044</v>
+        <v>155.7664206654045</v>
       </c>
       <c r="K3" t="n">
-        <v>388.9478577415907</v>
+        <v>388.9478577415908</v>
       </c>
       <c r="L3" t="n">
-        <v>748.8116174223337</v>
+        <v>748.8116174223339</v>
       </c>
       <c r="M3" t="n">
         <v>1188.112519465049</v>
       </c>
       <c r="N3" t="n">
-        <v>1653.44905411995</v>
+        <v>1653.449054119951</v>
       </c>
       <c r="O3" t="n">
-        <v>2056.921277259247</v>
+        <v>2056.921277259248</v>
       </c>
       <c r="P3" t="n">
-        <v>2361.410240824783</v>
+        <v>2361.410240824784</v>
       </c>
       <c r="Q3" t="n">
-        <v>2515.033852890301</v>
+        <v>2515.033852890302</v>
       </c>
       <c r="R3" t="n">
-        <v>2512.89551610594</v>
+        <v>2512.895516105941</v>
       </c>
       <c r="S3" t="n">
-        <v>2382.861096708697</v>
+        <v>2382.861096708699</v>
       </c>
       <c r="T3" t="n">
-        <v>2190.088648044977</v>
+        <v>2190.088648044979</v>
       </c>
       <c r="U3" t="n">
-        <v>1962.01868831201</v>
+        <v>1962.018688312013</v>
       </c>
       <c r="V3" t="n">
-        <v>1726.866580080268</v>
+        <v>1726.86658008027</v>
       </c>
       <c r="W3" t="n">
-        <v>1472.629223352066</v>
+        <v>1472.629223352068</v>
       </c>
       <c r="X3" t="n">
-        <v>1264.777723146533</v>
+        <v>1264.777723146535</v>
       </c>
       <c r="Y3" t="n">
-        <v>1057.01742438158</v>
+        <v>1057.017424381581</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="C4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="D4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="E4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="F4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="G4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="H4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274263</v>
+        <v>75.02005212274277</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033532</v>
+        <v>170.2650045033534</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633493</v>
+        <v>322.0515495633496</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992784</v>
+        <v>485.3474622992789</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206064</v>
+        <v>652.618089120607</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079663</v>
+        <v>786.806497607967</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983271</v>
+        <v>882.565891698328</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529782</v>
+        <v>893.2769546529793</v>
       </c>
       <c r="R4" t="n">
-        <v>802.2358682746304</v>
+        <v>802.2358682746315</v>
       </c>
       <c r="S4" t="n">
-        <v>610.0807612843372</v>
+        <v>610.0807612843382</v>
       </c>
       <c r="T4" t="n">
-        <v>388.1991042659414</v>
+        <v>388.1991042659424</v>
       </c>
       <c r="U4" t="n">
-        <v>99.09476877556898</v>
+        <v>99.09476877556988</v>
       </c>
       <c r="V4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="W4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="X4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599687</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>704.0603213003187</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>293.0744165107112</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>282.0423703961117</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3117.892240226373</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.829352882803</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>865.8247324870306</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>865.8247324870306</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133545</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="V7" t="n">
-        <v>410.0175235133545</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="W7" t="n">
-        <v>410.0175235133545</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X7" t="n">
-        <v>410.0175235133545</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285689</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.878520285689</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="D8" t="n">
-        <v>1409.612821678938</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.824569080694</v>
+        <v>979.2965659530264</v>
       </c>
       <c r="F8" t="n">
-        <v>612.8386642910866</v>
+        <v>568.3106611634189</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4838,16 +4838,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>758.526868257424</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145372</v>
+        <v>758.526868257424</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145372</v>
+        <v>758.526868257424</v>
       </c>
       <c r="V10" t="n">
-        <v>252.7500180086504</v>
+        <v>503.8423800515371</v>
       </c>
       <c r="W10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="X10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="11">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400724</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121655</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5209,22 +5209,22 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
         <v>1977.461080510509</v>
@@ -5236,13 +5236,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138422</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703121</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,19 +5452,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121646</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298252</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6124,19 +6124,19 @@
         <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,7 +6172,7 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
         <v>1977.461080510508</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
         <v>378.192580311172</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,22 +6403,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6625,7 +6625,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6658,10 +6658,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6683,13 +6683,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6883,25 +6883,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7090,28 +7090,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954146</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380725</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,19 +7825,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>370.9645903338067</v>
+        <v>16.28154871312188</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22635,13 +22635,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.21325120110654</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.21325120110487</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808266</v>
+        <v>144.9920054808265</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370429</v>
+        <v>97.15402040370427</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>218.4461809955516</v>
+        <v>218.4461809955507</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409392959</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.3204386478856</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393034</v>
+        <v>127.7255247667967</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393041</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823382</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228759</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823119</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1136131.890650282</v>
+        <v>1136131.890650283</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833907</v>
+        <v>19312.30676833851</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097967</v>
+        <v>232219.4755097968</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940882</v>
+        <v>4661.989000940765</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742</v>
+        <v>572.0114859742004</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26439,16 +26439,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
+        <v>24037.44323498545</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24037.44323498545</v>
+      </c>
+      <c r="L4" t="n">
         <v>24037.44323498544</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>24037.44323498544</v>
-      </c>
-      <c r="L4" t="n">
-        <v>24037.44323498543</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24037.44323498545</v>
       </c>
       <c r="N4" t="n">
         <v>24037.44323498545</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1415512.909311426</v>
+        <v>-1415942.468178015</v>
       </c>
       <c r="C6" t="n">
-        <v>-220842.9914337849</v>
+        <v>-220842.9914337843</v>
       </c>
       <c r="D6" t="n">
-        <v>-201530.6846654459</v>
+        <v>-201530.6846654458</v>
       </c>
       <c r="E6" t="n">
-        <v>-442581.5756031543</v>
+        <v>-442616.3135285899</v>
       </c>
       <c r="F6" t="n">
-        <v>-117169.1137957991</v>
+        <v>-117203.8517212348</v>
       </c>
       <c r="G6" t="n">
-        <v>-117169.1137957991</v>
+        <v>-117203.8517212348</v>
       </c>
       <c r="H6" t="n">
-        <v>-117169.1137957991</v>
+        <v>-117203.8517212348</v>
       </c>
       <c r="I6" t="n">
-        <v>-117169.1137957991</v>
+        <v>-117203.8517212348</v>
       </c>
       <c r="J6" t="n">
-        <v>-359421.0345986976</v>
+        <v>-359421.0345986977</v>
       </c>
       <c r="K6" t="n">
-        <v>-131863.5480898417</v>
+        <v>-131863.5480898416</v>
       </c>
       <c r="L6" t="n">
         <v>-127201.5590889008</v>
       </c>
       <c r="M6" t="n">
-        <v>-212256.5870244127</v>
+        <v>-212256.5870244126</v>
       </c>
       <c r="N6" t="n">
         <v>-127201.5590889008</v>
@@ -26561,7 +26561,7 @@
         <v>-146629.2770825326</v>
       </c>
       <c r="P6" t="n">
-        <v>-127201.5590889009</v>
+        <v>-127201.5590889008</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392017</v>
+        <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749604</v>
+        <v>813.2873580749608</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392017</v>
+        <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
-        <v>14.78162020128116</v>
+        <v>14.7816202012807</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749604</v>
+        <v>813.2873580749608</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733239</v>
+        <v>18.11409732733193</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749604</v>
+        <v>813.2873580749608</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733239</v>
+        <v>18.11409732733193</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749604</v>
+        <v>813.2873580749608</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733239</v>
+        <v>18.11409732733193</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>81.23281296303145</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27670,13 +27670,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>154.5464881781083</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27822,10 +27822,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>135.2573747335991</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.34628052367276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>206.2431374333857</v>
+        <v>250.3258605297767</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>131.486771556138</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,10 +28059,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>29.0324891462885</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.321588262882478</v>
+        <v>4.32158826288248</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724519</v>
+        <v>44.25846579724521</v>
       </c>
       <c r="I2" t="n">
-        <v>166.6080315047769</v>
+        <v>166.608031504777</v>
       </c>
       <c r="J2" t="n">
-        <v>366.789401826822</v>
+        <v>366.7894018268222</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946375</v>
+        <v>549.7222329946377</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948271</v>
+        <v>681.9790397948275</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648634</v>
+        <v>758.8330850648638</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167784</v>
+        <v>771.1117977167786</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277406</v>
+        <v>728.1390044277409</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878294</v>
+        <v>621.4497941878296</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233505</v>
+        <v>466.6829145233507</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182917</v>
+        <v>271.4659687182918</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043456</v>
+        <v>98.47819254043461</v>
       </c>
       <c r="T2" t="n">
         <v>18.91775262076806</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305981</v>
+        <v>0.3457270610305983</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145093</v>
+        <v>2.312253569145095</v>
       </c>
       <c r="H3" t="n">
         <v>22.33150157569078</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714468</v>
+        <v>79.61048472714471</v>
       </c>
       <c r="J3" t="n">
-        <v>218.4572549690985</v>
+        <v>218.4572549690986</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3782441018198</v>
+        <v>373.37824410182</v>
       </c>
       <c r="L3" t="n">
-        <v>502.0531269321398</v>
+        <v>502.05312693214</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136493</v>
+        <v>585.8723188136495</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751531</v>
+        <v>601.3786157751533</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851486</v>
+        <v>550.1439445851488</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764873</v>
+        <v>441.5390170764874</v>
       </c>
       <c r="Q3" t="n">
-        <v>295.1571398087667</v>
+        <v>295.1571398087668</v>
       </c>
       <c r="R3" t="n">
         <v>143.5625505474472</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056783</v>
+        <v>42.94909590056785</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738335</v>
+        <v>9.320004517738338</v>
       </c>
       <c r="U3" t="n">
-        <v>0.152121945338493</v>
+        <v>0.1521219453384931</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739703</v>
+        <v>1.938515718739704</v>
       </c>
       <c r="H4" t="n">
         <v>17.23516702661301</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355399</v>
+        <v>58.29645452355402</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772127</v>
+        <v>225.2202807772128</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660828</v>
+        <v>288.2044187660829</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475336</v>
+        <v>303.8711503475337</v>
       </c>
       <c r="N4" t="n">
-        <v>296.6457735776858</v>
+        <v>296.6457735776859</v>
       </c>
       <c r="O4" t="n">
-        <v>274.0003854087719</v>
+        <v>274.000385408772</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464818</v>
+        <v>234.4546647464819</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391946</v>
+        <v>162.3242571391947</v>
       </c>
       <c r="R4" t="n">
-        <v>87.16271586260517</v>
+        <v>87.1627158626052</v>
       </c>
       <c r="S4" t="n">
-        <v>33.7830421165819</v>
+        <v>33.78304211658192</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069638</v>
+        <v>8.282748980069641</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221657</v>
+        <v>0.1057372210221658</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001357</v>
+        <v>185.7434973001359</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496569</v>
+        <v>329.6323819496571</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248399</v>
+        <v>446.2126248248402</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375907</v>
+        <v>528.4868518375911</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201875</v>
+        <v>541.6987341201877</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060538</v>
+        <v>498.0407930060542</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325599</v>
+        <v>390.2167984325601</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.377224648901</v>
+        <v>244.3772246489012</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415954</v>
+        <v>55.88043090415965</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243183</v>
+        <v>91.61962830243195</v>
       </c>
       <c r="K3" t="n">
-        <v>235.5368051274608</v>
+        <v>235.536805127461</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522656</v>
+        <v>363.4987471522658</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916309</v>
+        <v>443.7382848916312</v>
       </c>
       <c r="N3" t="n">
-        <v>470.0369036918198</v>
+        <v>470.03690369182</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407041</v>
+        <v>407.5477001407044</v>
       </c>
       <c r="P3" t="n">
-        <v>307.564609662157</v>
+        <v>307.5646096621572</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.1753657227452</v>
+        <v>155.1753657227453</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550087</v>
+        <v>10.05763987550093</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667733</v>
+        <v>96.20702260667741</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848445</v>
+        <v>153.3197424848446</v>
       </c>
       <c r="M4" t="n">
-        <v>164.9453663999285</v>
+        <v>164.9453663999286</v>
       </c>
       <c r="N4" t="n">
-        <v>168.9602291124526</v>
+        <v>168.9602291124527</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569291</v>
+        <v>135.5438469569293</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733418</v>
+        <v>96.72666069733427</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974873</v>
+        <v>10.81925550974881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899083</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36753,16 +36753,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980851</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,10 +38184,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
